--- a/Excel-XLSX/UN-CMR.xlsx
+++ b/Excel-XLSX/UN-CMR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="1047">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>o8PHxK</t>
+    <t>Gt8nR4</t>
   </si>
   <si>
     <t>1970</t>
@@ -3048,40 +3048,43 @@
     <t>620</t>
   </si>
   <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
     <t>621</t>
   </si>
   <si>
-    <t>351061</t>
-  </si>
-  <si>
-    <t>4806</t>
-  </si>
-  <si>
-    <t>5057</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
     <t>622</t>
   </si>
   <si>
-    <t>1714</t>
-  </si>
-  <si>
-    <t>2230</t>
+    <t>292488</t>
+  </si>
+  <si>
+    <t>5130</t>
+  </si>
+  <si>
+    <t>8675</t>
+  </si>
+  <si>
+    <t>724</t>
   </si>
   <si>
     <t>623</t>
   </si>
   <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>2498</t>
+  </si>
+  <si>
     <t>1036775</t>
   </si>
   <si>
-    <t>38477</t>
-  </si>
-  <si>
-    <t>12928</t>
+    <t>12811</t>
   </si>
   <si>
     <t>626</t>
@@ -3114,21 +3117,21 @@
     <t>636</t>
   </si>
   <si>
-    <t>3300</t>
-  </si>
-  <si>
     <t>637</t>
   </si>
   <si>
-    <t>130047</t>
-  </si>
-  <si>
-    <t>11947</t>
+    <t>6416</t>
   </si>
   <si>
     <t>638</t>
   </si>
   <si>
+    <t>131920</t>
+  </si>
+  <si>
+    <t>15498</t>
+  </si>
+  <si>
     <t>639</t>
   </si>
   <si>
@@ -3151,6 +3154,9 @@
   </si>
   <si>
     <t>646</t>
+  </si>
+  <si>
+    <t>647</t>
   </si>
 </sst>
 </file>
@@ -3535,7 +3541,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V647"/>
+  <dimension ref="A1:V648"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -45611,7 +45617,7 @@
         <v>46</v>
       </c>
       <c r="O619" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="P619" s="2" t="s">
         <v>33</v>
@@ -45676,13 +45682,13 @@
         <v>31</v>
       </c>
       <c r="N620" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="O620" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="P620" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Q620" s="2" t="s">
         <v>33</v>
@@ -45720,16 +45726,16 @@
         <v>1003</v>
       </c>
       <c r="F621" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G621" s="1" t="s">
-        <v>560</v>
+        <v>1010</v>
       </c>
       <c r="H621" s="1" t="s">
-        <v>561</v>
+        <v>1011</v>
       </c>
       <c r="I621" s="1" t="s">
-        <v>562</v>
+        <v>1011</v>
       </c>
       <c r="J621" s="2" t="s">
         <v>29</v>
@@ -45744,10 +45750,10 @@
         <v>31</v>
       </c>
       <c r="N621" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="O621" s="2" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="P621" s="2" t="s">
         <v>33</v>
@@ -45782,22 +45788,22 @@
         <v>22</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G622" s="1" t="s">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="H622" s="1" t="s">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="I622" s="1" t="s">
-        <v>81</v>
+        <v>562</v>
       </c>
       <c r="J622" s="2" t="s">
         <v>29</v>
@@ -45812,13 +45818,13 @@
         <v>31</v>
       </c>
       <c r="N622" s="2" t="s">
-        <v>1011</v>
+        <v>83</v>
       </c>
       <c r="O622" s="2" t="s">
-        <v>1012</v>
+        <v>215</v>
       </c>
       <c r="P622" s="2" t="s">
-        <v>1013</v>
+        <v>33</v>
       </c>
       <c r="Q622" s="2" t="s">
         <v>33</v>
@@ -45830,7 +45836,7 @@
         <v>33</v>
       </c>
       <c r="T622" s="2" t="s">
-        <v>1014</v>
+        <v>33</v>
       </c>
       <c r="U622" s="1" t="s">
         <v>34</v>
@@ -45850,22 +45856,22 @@
         <v>22</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="G623" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H623" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I623" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="J623" s="2" t="s">
         <v>29</v>
@@ -45880,25 +45886,25 @@
         <v>31</v>
       </c>
       <c r="N623" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="O623" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P623" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="O623" s="2" t="s">
+      <c r="Q623" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R623" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S623" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T623" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="P623" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q623" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R623" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S623" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T623" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="U623" s="1" t="s">
         <v>34</v>
@@ -45924,16 +45930,16 @@
         <v>1003</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H624" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I624" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J624" s="2" t="s">
         <v>29</v>
@@ -45948,25 +45954,25 @@
         <v>31</v>
       </c>
       <c r="N624" s="2" t="s">
-        <v>33</v>
+        <v>1019</v>
       </c>
       <c r="O624" s="2" t="s">
-        <v>33</v>
+        <v>1020</v>
       </c>
       <c r="P624" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="Q624" s="2" t="s">
-        <v>1019</v>
+        <v>33</v>
       </c>
       <c r="R624" s="2" t="s">
-        <v>1020</v>
+        <v>33</v>
       </c>
       <c r="S624" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T624" s="2" t="s">
-        <v>1021</v>
+        <v>271</v>
       </c>
       <c r="U624" s="1" t="s">
         <v>34</v>
@@ -45992,16 +45998,16 @@
         <v>1003</v>
       </c>
       <c r="F625" s="2" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="G625" s="1" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="H625" s="1" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="I625" s="1" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="J625" s="2" t="s">
         <v>29</v>
@@ -46016,25 +46022,25 @@
         <v>31</v>
       </c>
       <c r="N625" s="2" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="O625" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="P625" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q625" s="2" t="s">
-        <v>33</v>
+        <v>1021</v>
       </c>
       <c r="R625" s="2" t="s">
-        <v>33</v>
+        <v>1022</v>
       </c>
       <c r="S625" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T625" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="U625" s="1" t="s">
         <v>34</v>
@@ -46060,16 +46066,16 @@
         <v>1003</v>
       </c>
       <c r="F626" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G626" s="1" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="H626" s="1" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="I626" s="1" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="J626" s="2" t="s">
         <v>29</v>
@@ -46084,10 +46090,10 @@
         <v>31</v>
       </c>
       <c r="N626" s="2" t="s">
-        <v>822</v>
+        <v>158</v>
       </c>
       <c r="O626" s="2" t="s">
-        <v>482</v>
+        <v>101</v>
       </c>
       <c r="P626" s="2" t="s">
         <v>33</v>
@@ -46102,7 +46108,7 @@
         <v>33</v>
       </c>
       <c r="T626" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="U626" s="1" t="s">
         <v>34</v>
@@ -46122,22 +46128,22 @@
         <v>22</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E627" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F627" s="2" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="G627" s="1" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="H627" s="1" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="I627" s="1" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="J627" s="2" t="s">
         <v>29</v>
@@ -46152,25 +46158,25 @@
         <v>31</v>
       </c>
       <c r="N627" s="2" t="s">
-        <v>54</v>
+        <v>818</v>
       </c>
       <c r="O627" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="P627" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q627" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R627" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S627" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T627" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="P627" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q627" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R627" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S627" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T627" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="U627" s="1" t="s">
         <v>34</v>
@@ -46190,22 +46196,22 @@
         <v>22</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E628" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F628" s="2" t="s">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="G628" s="1" t="s">
-        <v>483</v>
+        <v>38</v>
       </c>
       <c r="H628" s="1" t="s">
-        <v>484</v>
+        <v>39</v>
       </c>
       <c r="I628" s="1" t="s">
-        <v>484</v>
+        <v>40</v>
       </c>
       <c r="J628" s="2" t="s">
         <v>29</v>
@@ -46220,7 +46226,7 @@
         <v>31</v>
       </c>
       <c r="N628" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O628" s="2" t="s">
         <v>46</v>
@@ -46258,22 +46264,22 @@
         <v>22</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E629" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G629" s="1" t="s">
-        <v>576</v>
+        <v>483</v>
       </c>
       <c r="H629" s="1" t="s">
-        <v>577</v>
+        <v>484</v>
       </c>
       <c r="I629" s="1" t="s">
-        <v>578</v>
+        <v>484</v>
       </c>
       <c r="J629" s="2" t="s">
         <v>29</v>
@@ -46326,22 +46332,22 @@
         <v>22</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E630" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F630" s="2" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="G630" s="1" t="s">
-        <v>457</v>
+        <v>576</v>
       </c>
       <c r="H630" s="1" t="s">
-        <v>458</v>
+        <v>577</v>
       </c>
       <c r="I630" s="1" t="s">
-        <v>459</v>
+        <v>578</v>
       </c>
       <c r="J630" s="2" t="s">
         <v>29</v>
@@ -46356,10 +46362,10 @@
         <v>31</v>
       </c>
       <c r="N630" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="O630" s="2" t="s">
-        <v>413</v>
+        <v>46</v>
       </c>
       <c r="P630" s="2" t="s">
         <v>33</v>
@@ -46400,16 +46406,16 @@
         <v>1003</v>
       </c>
       <c r="F631" s="2" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="G631" s="1" t="s">
-        <v>349</v>
+        <v>457</v>
       </c>
       <c r="H631" s="1" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="I631" s="1" t="s">
-        <v>351</v>
+        <v>459</v>
       </c>
       <c r="J631" s="2" t="s">
         <v>29</v>
@@ -46424,10 +46430,10 @@
         <v>31</v>
       </c>
       <c r="N631" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="O631" s="2" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="P631" s="2" t="s">
         <v>33</v>
@@ -46462,22 +46468,22 @@
         <v>22</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E632" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F632" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G632" s="1" t="s">
-        <v>946</v>
+        <v>349</v>
       </c>
       <c r="H632" s="1" t="s">
-        <v>947</v>
+        <v>350</v>
       </c>
       <c r="I632" s="1" t="s">
-        <v>947</v>
+        <v>351</v>
       </c>
       <c r="J632" s="2" t="s">
         <v>29</v>
@@ -46492,10 +46498,10 @@
         <v>31</v>
       </c>
       <c r="N632" s="2" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="O632" s="2" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="P632" s="2" t="s">
         <v>33</v>
@@ -46530,22 +46536,22 @@
         <v>22</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E633" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="G633" s="1" t="s">
-        <v>193</v>
+        <v>946</v>
       </c>
       <c r="H633" s="1" t="s">
-        <v>194</v>
+        <v>947</v>
       </c>
       <c r="I633" s="1" t="s">
-        <v>194</v>
+        <v>947</v>
       </c>
       <c r="J633" s="2" t="s">
         <v>29</v>
@@ -46560,10 +46566,10 @@
         <v>31</v>
       </c>
       <c r="N633" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O633" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="P633" s="2" t="s">
         <v>33</v>
@@ -46598,22 +46604,22 @@
         <v>22</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E634" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F634" s="2" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="G634" s="1" t="s">
-        <v>488</v>
+        <v>193</v>
       </c>
       <c r="H634" s="1" t="s">
-        <v>489</v>
+        <v>194</v>
       </c>
       <c r="I634" s="1" t="s">
-        <v>490</v>
+        <v>194</v>
       </c>
       <c r="J634" s="2" t="s">
         <v>29</v>
@@ -46628,10 +46634,10 @@
         <v>31</v>
       </c>
       <c r="N634" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O634" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="O634" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P634" s="2" t="s">
         <v>33</v>
@@ -46666,22 +46672,22 @@
         <v>22</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E635" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G635" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H635" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I635" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J635" s="2" t="s">
         <v>29</v>
@@ -46696,10 +46702,10 @@
         <v>31</v>
       </c>
       <c r="N635" s="2" t="s">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="O635" s="2" t="s">
-        <v>523</v>
+        <v>33</v>
       </c>
       <c r="P635" s="2" t="s">
         <v>33</v>
@@ -46714,7 +46720,7 @@
         <v>33</v>
       </c>
       <c r="T635" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="U635" s="1" t="s">
         <v>34</v>
@@ -46734,22 +46740,22 @@
         <v>22</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E636" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>362</v>
+        <v>203</v>
       </c>
       <c r="G636" s="1" t="s">
-        <v>550</v>
+        <v>492</v>
       </c>
       <c r="H636" s="1" t="s">
-        <v>551</v>
+        <v>493</v>
       </c>
       <c r="I636" s="1" t="s">
-        <v>552</v>
+        <v>493</v>
       </c>
       <c r="J636" s="2" t="s">
         <v>29</v>
@@ -46764,10 +46770,10 @@
         <v>31</v>
       </c>
       <c r="N636" s="2" t="s">
-        <v>54</v>
+        <v>487</v>
       </c>
       <c r="O636" s="2" t="s">
-        <v>33</v>
+        <v>556</v>
       </c>
       <c r="P636" s="2" t="s">
         <v>33</v>
@@ -46782,7 +46788,7 @@
         <v>33</v>
       </c>
       <c r="T636" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="U636" s="1" t="s">
         <v>34</v>
@@ -46802,22 +46808,22 @@
         <v>22</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E637" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="G637" s="1" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="H637" s="1" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="I637" s="1" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="J637" s="2" t="s">
         <v>29</v>
@@ -46832,10 +46838,10 @@
         <v>31</v>
       </c>
       <c r="N637" s="2" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="O637" s="2" t="s">
-        <v>1032</v>
+        <v>33</v>
       </c>
       <c r="P637" s="2" t="s">
         <v>33</v>
@@ -46850,7 +46856,7 @@
         <v>33</v>
       </c>
       <c r="T637" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="U637" s="1" t="s">
         <v>34</v>
@@ -46876,16 +46882,16 @@
         <v>1003</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="G638" s="1" t="s">
-        <v>327</v>
+        <v>495</v>
       </c>
       <c r="H638" s="1" t="s">
-        <v>328</v>
+        <v>496</v>
       </c>
       <c r="I638" s="1" t="s">
-        <v>329</v>
+        <v>497</v>
       </c>
       <c r="J638" s="2" t="s">
         <v>29</v>
@@ -46900,13 +46906,13 @@
         <v>31</v>
       </c>
       <c r="N638" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="O638" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="O638" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="P638" s="2" t="s">
-        <v>1035</v>
+        <v>33</v>
       </c>
       <c r="Q638" s="2" t="s">
         <v>33</v>
@@ -46918,7 +46924,7 @@
         <v>33</v>
       </c>
       <c r="T638" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="U638" s="1" t="s">
         <v>34</v>
@@ -46938,22 +46944,22 @@
         <v>22</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E639" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F639" s="2" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="G639" s="1" t="s">
-        <v>196</v>
+        <v>327</v>
       </c>
       <c r="H639" s="1" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="I639" s="1" t="s">
-        <v>197</v>
+        <v>329</v>
       </c>
       <c r="J639" s="2" t="s">
         <v>29</v>
@@ -46968,13 +46974,13 @@
         <v>31</v>
       </c>
       <c r="N639" s="2" t="s">
-        <v>575</v>
+        <v>1036</v>
       </c>
       <c r="O639" s="2" t="s">
-        <v>195</v>
+        <v>967</v>
       </c>
       <c r="P639" s="2" t="s">
-        <v>33</v>
+        <v>1037</v>
       </c>
       <c r="Q639" s="2" t="s">
         <v>33</v>
@@ -46986,7 +46992,7 @@
         <v>33</v>
       </c>
       <c r="T639" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="U639" s="1" t="s">
         <v>34</v>
@@ -47006,22 +47012,22 @@
         <v>22</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E640" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F640" s="2" t="s">
-        <v>436</v>
+        <v>195</v>
       </c>
       <c r="G640" s="1" t="s">
-        <v>593</v>
+        <v>196</v>
       </c>
       <c r="H640" s="1" t="s">
-        <v>594</v>
+        <v>197</v>
       </c>
       <c r="I640" s="1" t="s">
-        <v>594</v>
+        <v>197</v>
       </c>
       <c r="J640" s="2" t="s">
         <v>29</v>
@@ -47036,10 +47042,10 @@
         <v>31</v>
       </c>
       <c r="N640" s="2" t="s">
-        <v>33</v>
+        <v>581</v>
       </c>
       <c r="O640" s="2" t="s">
-        <v>62</v>
+        <v>445</v>
       </c>
       <c r="P640" s="2" t="s">
         <v>33</v>
@@ -47074,22 +47080,22 @@
         <v>22</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E641" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G641" s="1" t="s">
-        <v>438</v>
+        <v>593</v>
       </c>
       <c r="H641" s="1" t="s">
-        <v>439</v>
+        <v>594</v>
       </c>
       <c r="I641" s="1" t="s">
-        <v>439</v>
+        <v>594</v>
       </c>
       <c r="J641" s="2" t="s">
         <v>29</v>
@@ -47107,7 +47113,7 @@
         <v>33</v>
       </c>
       <c r="O641" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="P641" s="2" t="s">
         <v>33</v>
@@ -47142,22 +47148,22 @@
         <v>22</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E642" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F642" s="2" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="G642" s="1" t="s">
-        <v>658</v>
+        <v>438</v>
       </c>
       <c r="H642" s="1" t="s">
-        <v>659</v>
+        <v>439</v>
       </c>
       <c r="I642" s="1" t="s">
-        <v>659</v>
+        <v>439</v>
       </c>
       <c r="J642" s="2" t="s">
         <v>29</v>
@@ -47172,10 +47178,10 @@
         <v>31</v>
       </c>
       <c r="N642" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O642" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="P642" s="2" t="s">
         <v>33</v>
@@ -47210,22 +47216,22 @@
         <v>22</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E643" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F643" s="2" t="s">
-        <v>199</v>
+        <v>456</v>
       </c>
       <c r="G643" s="1" t="s">
-        <v>200</v>
+        <v>658</v>
       </c>
       <c r="H643" s="1" t="s">
-        <v>201</v>
+        <v>659</v>
       </c>
       <c r="I643" s="1" t="s">
-        <v>202</v>
+        <v>659</v>
       </c>
       <c r="J643" s="2" t="s">
         <v>29</v>
@@ -47240,10 +47246,10 @@
         <v>31</v>
       </c>
       <c r="N643" s="2" t="s">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="O643" s="2" t="s">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="P643" s="2" t="s">
         <v>33</v>
@@ -47278,22 +47284,22 @@
         <v>22</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E644" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F644" s="2" t="s">
-        <v>465</v>
+        <v>199</v>
       </c>
       <c r="G644" s="1" t="s">
-        <v>622</v>
+        <v>200</v>
       </c>
       <c r="H644" s="1" t="s">
-        <v>623</v>
+        <v>201</v>
       </c>
       <c r="I644" s="1" t="s">
-        <v>623</v>
+        <v>202</v>
       </c>
       <c r="J644" s="2" t="s">
         <v>29</v>
@@ -47308,10 +47314,10 @@
         <v>31</v>
       </c>
       <c r="N644" s="2" t="s">
-        <v>69</v>
+        <v>435</v>
       </c>
       <c r="O644" s="2" t="s">
-        <v>33</v>
+        <v>361</v>
       </c>
       <c r="P644" s="2" t="s">
         <v>33</v>
@@ -47346,22 +47352,22 @@
         <v>22</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E645" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F645" s="2" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="G645" s="1" t="s">
-        <v>402</v>
+        <v>622</v>
       </c>
       <c r="H645" s="1" t="s">
-        <v>403</v>
+        <v>623</v>
       </c>
       <c r="I645" s="1" t="s">
-        <v>404</v>
+        <v>623</v>
       </c>
       <c r="J645" s="2" t="s">
         <v>29</v>
@@ -47376,10 +47382,10 @@
         <v>31</v>
       </c>
       <c r="N645" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="O645" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="P645" s="2" t="s">
         <v>33</v>
@@ -47414,22 +47420,22 @@
         <v>22</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E646" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>481</v>
+        <v>401</v>
       </c>
       <c r="G646" s="1" t="s">
-        <v>789</v>
+        <v>402</v>
       </c>
       <c r="H646" s="1" t="s">
-        <v>790</v>
+        <v>403</v>
       </c>
       <c r="I646" s="1" t="s">
-        <v>790</v>
+        <v>404</v>
       </c>
       <c r="J646" s="2" t="s">
         <v>29</v>
@@ -47444,10 +47450,10 @@
         <v>31</v>
       </c>
       <c r="N646" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="O646" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P646" s="2" t="s">
         <v>33</v>
@@ -47482,22 +47488,22 @@
         <v>22</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E647" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="G647" s="1" t="s">
-        <v>863</v>
+        <v>789</v>
       </c>
       <c r="H647" s="1" t="s">
-        <v>864</v>
+        <v>790</v>
       </c>
       <c r="I647" s="1" t="s">
-        <v>864</v>
+        <v>790</v>
       </c>
       <c r="J647" s="2" t="s">
         <v>29</v>
@@ -47536,6 +47542,74 @@
         <v>34</v>
       </c>
       <c r="V647" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G648" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H648" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I648" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="J648" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K648" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L648" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M648" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N648" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O648" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P648" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q648" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R648" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S648" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T648" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U648" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V648" s="2" t="s">
         <v>33</v>
       </c>
     </row>
